--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H2">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I2">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J2">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N2">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O2">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P2">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q2">
-        <v>538.528064278954</v>
+        <v>3420.821397173921</v>
       </c>
       <c r="R2">
-        <v>538.528064278954</v>
+        <v>30787.39257456529</v>
       </c>
       <c r="S2">
-        <v>0.06534726675614091</v>
+        <v>0.1720649773400685</v>
       </c>
       <c r="T2">
-        <v>0.06534726675614091</v>
+        <v>0.1720649773400685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H3">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I3">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J3">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N3">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O3">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P3">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q3">
-        <v>400.6680409802385</v>
+        <v>438.3467235320554</v>
       </c>
       <c r="R3">
-        <v>400.6680409802385</v>
+        <v>3945.120511788499</v>
       </c>
       <c r="S3">
-        <v>0.04861875005465573</v>
+        <v>0.02204854048034992</v>
       </c>
       <c r="T3">
-        <v>0.04861875005465573</v>
+        <v>0.02204854048034992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H4">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I4">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J4">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N4">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O4">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P4">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q4">
-        <v>3.949699454515169</v>
+        <v>4.173023769313555</v>
       </c>
       <c r="R4">
-        <v>3.949699454515169</v>
+        <v>37.55721392382199</v>
       </c>
       <c r="S4">
-        <v>0.0004792731910942561</v>
+        <v>0.0002099002423510618</v>
       </c>
       <c r="T4">
-        <v>0.0004792731910942561</v>
+        <v>0.0002099002423510618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.64120523876466</v>
+        <v>6.980814333333332</v>
       </c>
       <c r="H5">
-        <v>6.64120523876466</v>
+        <v>20.942443</v>
       </c>
       <c r="I5">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="J5">
-        <v>0.2577352165731273</v>
+        <v>0.2573350203399358</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N5">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O5">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P5">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q5">
-        <v>1180.855001557198</v>
+        <v>1252.732779628527</v>
       </c>
       <c r="R5">
-        <v>1180.855001557198</v>
+        <v>11274.59501665675</v>
       </c>
       <c r="S5">
-        <v>0.1432899265712364</v>
+        <v>0.06301160227716632</v>
       </c>
       <c r="T5">
-        <v>0.1432899265712364</v>
+        <v>0.06301160227716633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.32713859321921</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H6">
-        <v>6.32713859321921</v>
+        <v>19.126085</v>
       </c>
       <c r="I6">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J6">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N6">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O6">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P6">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q6">
-        <v>513.0607437250065</v>
+        <v>3124.130303812558</v>
       </c>
       <c r="R6">
-        <v>513.0607437250065</v>
+        <v>28117.17273431303</v>
       </c>
       <c r="S6">
-        <v>0.06225695466250617</v>
+        <v>0.1571416182022901</v>
       </c>
       <c r="T6">
-        <v>0.06225695466250617</v>
+        <v>0.1571416182022902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.32713859321921</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H7">
-        <v>6.32713859321921</v>
+        <v>19.126085</v>
       </c>
       <c r="I7">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J7">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N7">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O7">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P7">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q7">
-        <v>381.7202049950736</v>
+        <v>400.3284952832673</v>
       </c>
       <c r="R7">
-        <v>381.7202049950736</v>
+        <v>3602.956457549405</v>
       </c>
       <c r="S7">
-        <v>0.04631953971687694</v>
+        <v>0.02013624959385652</v>
       </c>
       <c r="T7">
-        <v>0.04631953971687694</v>
+        <v>0.02013624959385653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.32713859321921</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H8">
-        <v>6.32713859321921</v>
+        <v>19.126085</v>
       </c>
       <c r="I8">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J8">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N8">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O8">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P8">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q8">
-        <v>3.762915758786016</v>
+        <v>3.811093448787778</v>
       </c>
       <c r="R8">
-        <v>3.762915758786016</v>
+        <v>34.29984103909</v>
       </c>
       <c r="S8">
-        <v>0.0004566080696268107</v>
+        <v>0.0001916953946933034</v>
       </c>
       <c r="T8">
-        <v>0.0004566080696268107</v>
+        <v>0.0001916953946933034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.32713859321921</v>
+        <v>6.375361666666667</v>
       </c>
       <c r="H9">
-        <v>6.32713859321921</v>
+        <v>19.126085</v>
       </c>
       <c r="I9">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="J9">
-        <v>0.2455467610145532</v>
+        <v>0.2350161092714131</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N9">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O9">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P9">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q9">
-        <v>1125.011648448655</v>
+        <v>1144.082074162097</v>
       </c>
       <c r="R9">
-        <v>1125.011648448655</v>
+        <v>10296.73866745887</v>
       </c>
       <c r="S9">
-        <v>0.1365136585655433</v>
+        <v>0.05754654608057316</v>
       </c>
       <c r="T9">
-        <v>0.1365136585655433</v>
+        <v>0.05754654608057316</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.14316724269893</v>
+        <v>5.973131</v>
       </c>
       <c r="H10">
-        <v>5.14316724269893</v>
+        <v>17.919393</v>
       </c>
       <c r="I10">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="J10">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N10">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O10">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P10">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q10">
-        <v>417.0538027204207</v>
+        <v>2927.024464088005</v>
       </c>
       <c r="R10">
-        <v>417.0538027204207</v>
+        <v>26343.22017679205</v>
       </c>
       <c r="S10">
-        <v>0.05060706749707523</v>
+        <v>0.1472273292324483</v>
       </c>
       <c r="T10">
-        <v>0.05060706749707523</v>
+        <v>0.1472273292324483</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.14316724269893</v>
+        <v>5.973131</v>
       </c>
       <c r="H11">
-        <v>5.14316724269893</v>
+        <v>17.919393</v>
       </c>
       <c r="I11">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="J11">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N11">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O11">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P11">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q11">
-        <v>310.2904773274601</v>
+        <v>375.0711991544277</v>
       </c>
       <c r="R11">
-        <v>310.2904773274601</v>
+        <v>3375.640792389849</v>
       </c>
       <c r="S11">
-        <v>0.03765195528102444</v>
+        <v>0.01886582486789144</v>
       </c>
       <c r="T11">
-        <v>0.03765195528102444</v>
+        <v>0.01886582486789144</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.14316724269893</v>
+        <v>5.973131</v>
       </c>
       <c r="H12">
-        <v>5.14316724269893</v>
+        <v>17.919393</v>
       </c>
       <c r="I12">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="J12">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N12">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O12">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P12">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q12">
-        <v>3.058776851887637</v>
+        <v>3.570646123791333</v>
       </c>
       <c r="R12">
-        <v>3.058776851887637</v>
+        <v>32.135815114122</v>
       </c>
       <c r="S12">
-        <v>0.0003711648847037105</v>
+        <v>0.000179601058648407</v>
       </c>
       <c r="T12">
-        <v>0.0003711648847037105</v>
+        <v>0.000179601058648407</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.14316724269893</v>
+        <v>5.973131</v>
       </c>
       <c r="H13">
-        <v>5.14316724269893</v>
+        <v>17.919393</v>
       </c>
       <c r="I13">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="J13">
-        <v>0.1995986083115532</v>
+        <v>0.2201886075150976</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N13">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O13">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P13">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q13">
-        <v>914.4928584552949</v>
+        <v>1071.900303233294</v>
       </c>
       <c r="R13">
-        <v>914.4928584552949</v>
+        <v>9647.102729099646</v>
       </c>
       <c r="S13">
-        <v>0.1109684206487499</v>
+        <v>0.05391585235610947</v>
       </c>
       <c r="T13">
-        <v>0.1109684206487499</v>
+        <v>0.05391585235610948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.65603954205781</v>
+        <v>7.798031999999999</v>
       </c>
       <c r="H14">
-        <v>7.65603954205781</v>
+        <v>23.394096</v>
       </c>
       <c r="I14">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="J14">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N14">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O14">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P14">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q14">
-        <v>620.8198672375989</v>
+        <v>3821.28408630936</v>
       </c>
       <c r="R14">
-        <v>620.8198672375989</v>
+        <v>34391.55677678424</v>
       </c>
       <c r="S14">
-        <v>0.07533290122253118</v>
+        <v>0.1922079767929361</v>
       </c>
       <c r="T14">
-        <v>0.07533290122253118</v>
+        <v>0.1922079767929361</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.65603954205781</v>
+        <v>7.798031999999999</v>
       </c>
       <c r="H15">
-        <v>7.65603954205781</v>
+        <v>23.394096</v>
       </c>
       <c r="I15">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="J15">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N15">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O15">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P15">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q15">
-        <v>461.8936254338889</v>
+        <v>489.662325049392</v>
       </c>
       <c r="R15">
-        <v>461.8936254338889</v>
+        <v>4406.960925444528</v>
       </c>
       <c r="S15">
-        <v>0.05604812071326802</v>
+        <v>0.02462968015036222</v>
       </c>
       <c r="T15">
-        <v>0.05604812071326802</v>
+        <v>0.02462968015036222</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.65603954205781</v>
+        <v>7.798031999999999</v>
       </c>
       <c r="H16">
-        <v>7.65603954205781</v>
+        <v>23.394096</v>
       </c>
       <c r="I16">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="J16">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N16">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O16">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P16">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q16">
-        <v>4.553248110223605</v>
+        <v>4.661543959775999</v>
       </c>
       <c r="R16">
-        <v>4.553248110223605</v>
+        <v>41.95389563798399</v>
       </c>
       <c r="S16">
-        <v>0.0005525103306622688</v>
+        <v>0.0002344724739126188</v>
       </c>
       <c r="T16">
-        <v>0.0005525103306622688</v>
+        <v>0.0002344724739126188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.65603954205781</v>
+        <v>7.798031999999999</v>
       </c>
       <c r="H17">
-        <v>7.65603954205781</v>
+        <v>23.394096</v>
       </c>
       <c r="I17">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="J17">
-        <v>0.2971194141007664</v>
+        <v>0.2874602628735535</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N17">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O17">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P17">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q17">
-        <v>1361.299984013189</v>
+        <v>1399.385492369568</v>
       </c>
       <c r="R17">
-        <v>1361.299984013189</v>
+        <v>12594.46943132611</v>
       </c>
       <c r="S17">
-        <v>0.1651858818343049</v>
+        <v>0.07038813345634258</v>
       </c>
       <c r="T17">
-        <v>0.1651858818343049</v>
+        <v>0.07038813345634261</v>
       </c>
     </row>
   </sheetData>
